--- a/biology/Histoire de la zoologie et de la botanique/Georges_Deflandre/Georges_Deflandre.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_Deflandre/Georges_Deflandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Deflandre, né le 18 mars 1897 à Dizy et mort le 17 juin 1973 à Paris 10e[1], est un naturaliste, protistologiste et micropaléontologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Deflandre, né le 18 mars 1897 à Dizy et mort le 17 juin 1973 à Paris 10e, est un naturaliste, protistologiste et micropaléontologue français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Époux de Marthe Deflandre-Rigaud. Directeur du laboratoire de micropaléontologie  à l'École pratique des hautes études de Paris. Professeur au Muséum national d'histoire naturelle  de Paris. Taxons : Prorodon deflandrei Dragesco, 1954, Verticiplagia deflandrei Dumitrica, 2004[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Époux de Marthe Deflandre-Rigaud. Directeur du laboratoire de micropaléontologie  à l'École pratique des hautes études de Paris. Professeur au Muséum national d'histoire naturelle  de Paris. Taxons : Prorodon deflandrei Dragesco, 1954, Verticiplagia deflandrei Dumitrica, 2004
 Il fut élu correspondant à  l’Académie des sciences dans la division des membres libres et des applications des sciences à l’industrie, le 9 mai 1966.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de sa carrière, il a produit 314 monographies, livres et articles scientifiques qui ont permis la description d'environ 1000 taxons.
 </t>
@@ -574,9 +590,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix Georges Deflandre et Marthe Deflandre-Rigaud, créé en 1970, est destiné à récompenser des travaux de paléontologie, par exemple en paléobotanique, micropaléontologie, paléobiologie, systématique ou biostratigraphie[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix Georges Deflandre et Marthe Deflandre-Rigaud, créé en 1970, est destiné à récompenser des travaux de paléontologie, par exemple en paléobotanique, micropaléontologie, paléobiologie, systématique ou biostratigraphie.
 La Fondation Georges-Deflandre remet tous les deux ans un prix destiné à récompenser les travaux d'un jeune chercheur dans les domaines des sciences exactes et de la médecine.
 </t>
         </is>
